--- a/delta2/evidence/dfir/2020-10-08-dfir--ransom-ryuk--v1.1.xlsx
+++ b/delta2/evidence/dfir/2020-10-08-dfir--ransom-ryuk--v1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/evidence/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/evidence/dfir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CCF8D4-89A9-1542-82D0-8471C2B501DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665ECCA8-D79A-7E43-900C-CEECFA91252F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-21100" windowWidth="38340" windowHeight="21100" xr2:uid="{4FBEA496-5ECB-C248-B1D9-3E5612DBBE3F}"/>
+    <workbookView xWindow="60" yWindow="-21100" windowWidth="38340" windowHeight="21100" activeTab="2" xr2:uid="{4FBEA496-5ECB-C248-B1D9-3E5612DBBE3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Link" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="163">
   <si>
     <t>Description</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Protocol</t>
   </si>
   <si>
-    <t>netcon--winos</t>
-  </si>
-  <si>
     <t>CommandLine</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>ServiceStartType</t>
   </si>
   <si>
-    <t>process-access--winos</t>
-  </si>
-  <si>
     <t>Access</t>
   </si>
   <si>
@@ -248,9 +242,6 @@
   </si>
   <si>
     <t>done</t>
-  </si>
-  <si>
-    <t>HackTool</t>
   </si>
   <si>
     <t>Ip</t>
@@ -464,12 +455,6 @@
     <t>Commands Ran Prior To Ransom Execution</t>
   </si>
   <si>
-    <t>script</t>
-  </si>
-  <si>
-    <t>ET Pro - Network</t>
-  </si>
-  <si>
     <t>ET INFO Observed DNS Query for EmerDNS_TLD (.bazar)</t>
   </si>
   <si>
@@ -555,6 +540,42 @@
   </si>
   <si>
     <t>https://thedfirreport.com/2020/10/08/ryuks-return/</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>AlertSource [Sigma, EtPro]</t>
+  </si>
+  <si>
+    <t>process-create--</t>
+  </si>
+  <si>
+    <t>file-create--</t>
+  </si>
+  <si>
+    <t>netcon--</t>
+  </si>
+  <si>
+    <t>process-access--</t>
+  </si>
+  <si>
+    <t>edr specific data like [mde]</t>
+  </si>
+  <si>
+    <t>script--</t>
+  </si>
+  <si>
+    <t>script--cmd</t>
+  </si>
+  <si>
+    <t>shell--</t>
+  </si>
+  <si>
+    <t>Ioc Tag Like [TTP, C2, Tool, File, Account, Ip, ProcessSpawn, ProcessInjection, Url, CVE, Vulnerability, Malware]</t>
+  </si>
+  <si>
+    <t>ETPro</t>
   </si>
 </sst>
 </file>
@@ -637,7 +658,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -675,14 +696,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -710,6 +756,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1229,8 +1285,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}" name="Table4" displayName="Table4" ref="A1:D17" totalsRowShown="0" headerRowDxfId="30">
-  <autoFilter ref="A1:D17" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}" name="Table4" displayName="Table4" ref="A1:D18" totalsRowShown="0" headerRowDxfId="30">
+  <autoFilter ref="A1:D18" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2">
     <sortCondition ref="A1:A2"/>
   </sortState>
@@ -1245,8 +1301,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}" name="Table7" displayName="Table7" ref="A1:E27" totalsRowShown="0" headerRowDxfId="26">
-  <autoFilter ref="A1:E27" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}" name="Table7" displayName="Table7" ref="A1:E28" totalsRowShown="0" headerRowDxfId="26">
+  <autoFilter ref="A1:E28" xr:uid="{AF94A374-1491-8B4D-AFCC-A64EC3D2A13D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E28">
+    <sortCondition ref="A1:A28"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{4082B79E-9BAC-EE49-9D02-A13CEF584AC0}" name="Index" dataDxfId="25"/>
     <tableColumn id="3" xr3:uid="{3BA7C236-8980-8148-BF61-C4D7D7EB4FF6}" name="AlertType" dataDxfId="24"/>
@@ -1259,8 +1318,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}" name="Table1" displayName="Table1" ref="A1:L23" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="A1:L23" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}" name="Table1" displayName="Table1" ref="A1:L24" totalsRowShown="0" headerRowDxfId="21">
+  <autoFilter ref="A1:L24" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7F4E572F-19FC-1C42-BF21-EF3EAA1CF83A}" name="Index"/>
     <tableColumn id="3" xr3:uid="{5246F5AC-4F4A-BC4C-892F-2E08E3349789}" name="DataSource"/>
@@ -1280,8 +1339,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}" name="Table5" displayName="Table5" ref="A1:K3" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:K3" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}" name="Table5" displayName="Table5" ref="A1:K4" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:K4" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{76C592A4-DC6F-6D43-92A4-408F9DA9250D}" name="Index"/>
     <tableColumn id="3" xr3:uid="{8DB66F33-29D6-F943-8797-F32327A212C4}" name="DataSource"/>
@@ -1357,8 +1416,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}" name="Table6" displayName="Table6" ref="A1:D2" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:D2" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}" name="Table6" displayName="Table6" ref="A1:D3" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:D3" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D3">
+    <sortCondition ref="A1:A3"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{77268EB9-1251-9745-92E1-436BE6AE585B}" name="Index"/>
     <tableColumn id="3" xr3:uid="{59DDF428-3E0B-6643-8972-9BD2488E3FA7}" name="DataSource"/>
@@ -1691,7 +1753,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
@@ -1701,36 +1763,36 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="122.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1738,22 +1800,22 @@
         <v>44112</v>
       </c>
       <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
         <v>64</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1772,7 +1834,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1792,52 +1854,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1856,7 +1921,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F33:F40"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1872,40 +1937,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="12" t="s">
+      <c r="G1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1925,7 +1993,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1933,43 +2001,44 @@
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" customWidth="1"/>
-    <col min="4" max="4" width="61.1640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="61.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1978,9 +2047,9 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="F2" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1996,47 +2065,41 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="74.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="74.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>84</v>
+      <c r="D2" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2044,13 +2107,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2058,13 +2121,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2072,13 +2135,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2086,13 +2149,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2100,13 +2163,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2114,13 +2177,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>87</v>
+        <v>66</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2128,10 +2191,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2139,13 +2202,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -2153,10 +2216,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>90</v>
+        <v>68</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -2164,10 +2227,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2175,10 +2238,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2186,13 +2249,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2200,10 +2263,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2211,24 +2274,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>154</v>
+        <v>86</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2244,11 +2321,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2256,337 +2333,346 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="102.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="102.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="153.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="E18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="E19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="E20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="E21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="E22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="E17" t="s">
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="E23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="E18" t="s">
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="E24" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="E19" t="s">
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="E25" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="E20" t="s">
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="E26" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="E21" t="s">
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="E27" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="E22" t="s">
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="E28" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="E23" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="E24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="E25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="E26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="E27" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2602,19 +2688,19 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51" style="6" customWidth="1"/>
-    <col min="4" max="4" width="74" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51" style="5" customWidth="1"/>
+    <col min="4" max="4" width="74" style="5" customWidth="1"/>
     <col min="5" max="5" width="54.6640625" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="29.1640625" bestFit="1" customWidth="1"/>
@@ -2626,54 +2712,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -2682,10 +2765,10 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2694,10 +2777,10 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2706,10 +2789,10 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="6"/>
+      <c r="D5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2718,10 +2801,10 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="6"/>
+      <c r="D6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2730,10 +2813,10 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="D7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2742,10 +2825,10 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="D8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -2754,10 +2837,10 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="6"/>
+      <c r="D9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -2766,10 +2849,10 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="D10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -2778,10 +2861,10 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="6"/>
+      <c r="D11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -2790,10 +2873,10 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="6"/>
+      <c r="D12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -2802,10 +2885,10 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="6"/>
+      <c r="D13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -2814,10 +2897,10 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="6"/>
+      <c r="D14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -2826,10 +2909,10 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="6"/>
+      <c r="D15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -2838,10 +2921,10 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="6"/>
+      <c r="D16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -2850,10 +2933,10 @@
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="6"/>
+      <c r="D17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -2862,10 +2945,10 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="6"/>
+      <c r="D18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -2874,10 +2957,10 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="D19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -2886,10 +2969,10 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="6"/>
+      <c r="D20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -2898,10 +2981,10 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="6"/>
+      <c r="D21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -2910,10 +2993,10 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="6"/>
+      <c r="D22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -2922,10 +3005,22 @@
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="6"/>
+      <c r="D23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2940,11 +3035,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2963,37 +3058,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3002,13 +3097,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3016,13 +3105,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3042,7 +3145,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3054,56 +3157,56 @@
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="60.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.6640625" customWidth="1"/>
-    <col min="11" max="11" width="61.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.1640625" customWidth="1"/>
     <col min="15" max="15" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="J1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3112,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3132,64 +3235,64 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="61.5" style="5" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
     <col min="11" max="11" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3208,7 +3311,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3216,26 +3319,29 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="114.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="114.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>30</v>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3251,11 +3357,11 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3267,31 +3373,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>123</v>
+        <v>158</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
